--- a/svmx/test_lab/test_cases/analytics/an_excleData/WorkScript.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/WorkScript.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanarao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanarao/auto/sahi_pro/userdata/scripts/Sahi_Project/svmx/test_lab/test_cases/analytics/an_excleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Account</t>
   </si>
@@ -44,24 +44,12 @@
     <t>Order Status</t>
   </si>
   <si>
-    <t>IB005</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
-    <t>01t0G0000053Jb6</t>
-  </si>
-  <si>
     <t>Closed On</t>
   </si>
   <si>
-    <t>InsertWO</t>
-  </si>
-  <si>
-    <t>SVMXDEV__Service_Order__c  WO = new SVMXDEV__Service_Order__c (SVMXDEV__Company__c = '001F000001rO8EL', SVMXDEV__Product__c = '01t0G0000053Jb6' , SVMXDEV__Group_Member__c = 'a1D0G00000BhS5R' ,  SVMXDEV__Order_Status__c = 'Closed' , SVMXDEV__Closed_On__c = System.today() );insert WO;</t>
-  </si>
-  <si>
     <t>001F000001rO8ELIA0</t>
   </si>
   <si>
@@ -69,6 +57,18 @@
   </si>
   <si>
     <t>Case case_1 = new Case (Status = 'Closed' );insert case_1 ;</t>
+  </si>
+  <si>
+    <t>a1Jq0000000ClRG</t>
+  </si>
+  <si>
+    <t>01tq0000001jgnw</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PBCy</t>
+  </si>
+  <si>
+    <t>System.today()</t>
   </si>
 </sst>
 </file>
@@ -122,8 +122,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -161,7 +165,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -174,6 +178,8 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -186,6 +192,8 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,13 +482,12 @@
     <col min="3" max="3" width="28.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="67.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,36 +504,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/svmx/test_lab/test_cases/analytics/an_excleData/WorkScript.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/WorkScript.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanarao/auto/sahi_pro/userdata/scripts/Sahi_Project/svmx/test_lab/test_cases/analytics/an_excleData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanarao/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Account</t>
   </si>
@@ -44,12 +44,24 @@
     <t>Order Status</t>
   </si>
   <si>
+    <t>IB005</t>
+  </si>
+  <si>
     <t>Closed</t>
   </si>
   <si>
+    <t>01t0G0000053Jb6</t>
+  </si>
+  <si>
     <t>Closed On</t>
   </si>
   <si>
+    <t>InsertWO</t>
+  </si>
+  <si>
+    <t>SVMXDEV__Service_Order__c  WO = new SVMXDEV__Service_Order__c (SVMXDEV__Company__c = '001F000001rO8EL', SVMXDEV__Product__c = '01t0G0000053Jb6' , SVMXDEV__Group_Member__c = 'a1D0G00000BhS5R' ,  SVMXDEV__Order_Status__c = 'Closed' , SVMXDEV__Closed_On__c = System.today() );insert WO;</t>
+  </si>
+  <si>
     <t>001F000001rO8ELIA0</t>
   </si>
   <si>
@@ -57,18 +69,6 @@
   </si>
   <si>
     <t>Case case_1 = new Case (Status = 'Closed' );insert case_1 ;</t>
-  </si>
-  <si>
-    <t>a1Jq0000000ClRG</t>
-  </si>
-  <si>
-    <t>01tq0000001jgnw</t>
-  </si>
-  <si>
-    <t>a0Nq0000003PBCy</t>
-  </si>
-  <si>
-    <t>System.today()</t>
   </si>
 </sst>
 </file>
@@ -122,12 +122,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -165,7 +161,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -178,8 +174,6 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -192,8 +186,6 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,12 +474,13 @@
     <col min="3" max="3" width="28.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="67.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,33 +497,36 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
